--- a/sydw/2020上/考点/3-中国特色社会主义理论体系.xlsx
+++ b/sydw/2020上/考点/3-中国特色社会主义理论体系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="752"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="752" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="中国特色社会主义理论体系" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="812">
   <si>
     <t>定义以及形成</t>
   </si>
@@ -1619,6 +1619,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5.坚持人</t>
     </r>
     <r>
@@ -1657,6 +1664,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>坚持</t>
     </r>
     <r>
@@ -1725,6 +1739,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>全面依法治国是中特社的本质要求和重要</t>
     </r>
     <r>
@@ -1739,7 +1760,7 @@
     </r>
   </si>
   <si>
-    <t>保障一般都选法治相关</t>
+    <t>保障一般都选法治相关。根本保障与党相关</t>
   </si>
   <si>
     <t>四个自信</t>
@@ -1755,6 +1776,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>文化自信</t>
     </r>
     <r>
@@ -1779,6 +1807,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>增进</t>
     </r>
     <r>
@@ -1804,6 +1839,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9.坚持人与自然</t>
     </r>
     <r>
@@ -1890,19 +1932,354 @@
     <t>分两个阶段来安排</t>
   </si>
   <si>
-    <t>1.2020-2035，基本实现社会主义现代化</t>
-  </si>
-  <si>
-    <t>2.2035-本世纪中叶，建成富强民主文明和谐美丽的社会主义现代化强国</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2020-2035，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会主义现代化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.2035-本世纪中叶，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>富强民主文明和谐美丽的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社会主义现代化强国</t>
+    </r>
+  </si>
+  <si>
+    <t>五位一体总布局</t>
   </si>
   <si>
     <t>建设现代化经济体系</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我国经济已由高速增长阶段转向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高质量发展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阶段，正处于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转变发展方式、优化经济结构、转换增长动力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻关期</t>
+    </r>
+  </si>
+  <si>
+    <t>转方式，优结构，转动力</t>
+  </si>
+  <si>
+    <t>建设现代化经济体系，必须坚持质量第一效益优先，推动经济发展质量变革、效率变革、动力变革，提高全要素生产率</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>主线</t>
+  </si>
+  <si>
+    <t>深化供给侧结构性改革</t>
+  </si>
+  <si>
+    <t>着力点</t>
+  </si>
+  <si>
+    <t>实体经济(先进制造业)</t>
+  </si>
+  <si>
+    <t>主攻方向</t>
+  </si>
+  <si>
+    <t>提高供给体系质量</t>
+  </si>
+  <si>
+    <t>创新(第一动力)</t>
+  </si>
+  <si>
+    <t>1.创新引领、协同发展的产业体系</t>
+  </si>
+  <si>
+    <t>2.统一开放、竞争有序的市场体系</t>
+  </si>
+  <si>
+    <t>现代化经济体系内容</t>
+  </si>
+  <si>
+    <t>3.体现效率、促进公平的收入分配体系</t>
+  </si>
+  <si>
+    <t>4.彰显优势、协调联动的城乡区域发展体系</t>
+  </si>
+  <si>
+    <t>5.资源节约、环境友好的绿色发展体系</t>
+  </si>
+  <si>
+    <t>6.多元平衡、安全高效的全面开放体系</t>
+  </si>
+  <si>
+    <t>建设现代化经济体系的措施和行动</t>
+  </si>
+  <si>
+    <t>1.大力发展实体经济</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.加快实施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驱动发展战略。深入实施科教兴国、人才强国战略、创新驱动发展战略。</t>
+    </r>
+  </si>
+  <si>
+    <t>2035年跻身创新型国家前列</t>
+  </si>
+  <si>
+    <t>3.激发各类市场主体活力</t>
+  </si>
+  <si>
+    <t>2050年实现科技创新强国</t>
+  </si>
+  <si>
+    <t>4.积极推动城乡区域协调发展</t>
+  </si>
+  <si>
+    <t>推进西部大开发、振兴东北、推动中部崛起、支持东部率先高质量发展、推进长江经济带绿色发展、科学制定乡村振兴战略规划</t>
+  </si>
+  <si>
+    <t>5.着力发展开放型经济</t>
+  </si>
+  <si>
+    <t>6.加快完善社会主义市场经济体制</t>
+  </si>
+  <si>
+    <t>必须毫不动摇巩固和发展公有制经济，毫不动摇鼓励、支持、引导给公有制经济发展。构建市场经济有效、微观主体有活力、宏观调控有度的经济体制</t>
+  </si>
+  <si>
     <t>一、贯彻新发展理念</t>
   </si>
   <si>
-    <t>党的十八届五中全会坚持以人民为中心的发展思想，鲜明提出了创新、协调、绿色、开放、共享的新发展理念</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>党的十八届五中全会坚持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以人民为中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的发展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>思想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，鲜明提出了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创新、协调、绿色、开放、共享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的新发展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理念</t>
+    </r>
   </si>
   <si>
     <t>创新</t>
@@ -1939,6 +2316,1089 @@
   </si>
   <si>
     <t>本质要求</t>
+  </si>
+  <si>
+    <t>二、深化供给侧结构性改革</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坚持质量第一效益优先，以供给侧结构改革为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，推动经济发展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质量变革、效率变革、动力变革</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，提高全要素生产率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.推进增长动能转换，以加快发展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先进制造业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为终点全面提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实体经济(着力点)</t>
+    </r>
+  </si>
+  <si>
+    <t>2.深化要素市场化配置改革，实现由价取胜向以质取胜的转变</t>
+  </si>
+  <si>
+    <t>3.激发和保护企业家精神，弘扬劳模精神和工匠精神</t>
+  </si>
+  <si>
+    <t>4.持续推进“三去一降一补”。去产能、去库存、去杠杆；降低成本；补短板。</t>
+  </si>
+  <si>
+    <t>中方民主和西方民主的不同</t>
+  </si>
+  <si>
+    <t>我方坚持三者合一(党人法)</t>
+  </si>
+  <si>
+    <t>发展社会主义民主政治</t>
+  </si>
+  <si>
+    <t>一、坚持中国特色社会主义政治发展道路</t>
+  </si>
+  <si>
+    <t>走中国特色社会主义政治发展道路，必须坚持党的领导(根本保证)，人民当家做主(本质特征),依法治国(基本方针)有机统一</t>
+  </si>
+  <si>
+    <t>二、健全的人民当家做主制度体系</t>
+  </si>
+  <si>
+    <t>国体</t>
+  </si>
+  <si>
+    <t>工人阶级领导的、以工农联盟为基础的人民民主专政的社会主义国家</t>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>人民代表大会制度</t>
+  </si>
+  <si>
+    <t>协商民主</t>
+  </si>
+  <si>
+    <t>中国社会主义民主政治的特有形式和独特优势</t>
+  </si>
+  <si>
+    <t>政党制度</t>
+  </si>
+  <si>
+    <t>政治协商制度</t>
+  </si>
+  <si>
+    <t>基本政治制度</t>
+  </si>
+  <si>
+    <t>民族区域自治制度</t>
+  </si>
+  <si>
+    <t>保障少数民族当家做主。</t>
+  </si>
+  <si>
+    <t>基层群众自治制度</t>
+  </si>
+  <si>
+    <t>村委会和居委会</t>
+  </si>
+  <si>
+    <t>三、巩固和发展爱国统一战线</t>
+  </si>
+  <si>
+    <t>1.坚持长期共存、相互监督、肝胆相照、荣辱与共，支持民主党派履行职能</t>
+  </si>
+  <si>
+    <t>2.深化民主团结进步教育，铸牢中华民族共同体意识</t>
+  </si>
+  <si>
+    <t>3.全面贯彻宗教工作，积极引导宗教与社会主义相适应</t>
+  </si>
+  <si>
+    <t>4.牢牢把握大团结大联合的主体，做好统战工作</t>
+  </si>
+  <si>
+    <t>四、坚持“一国两制”推进祖国统一</t>
+  </si>
+  <si>
+    <t>一个中国原则是两岸关系的政治基础，“九二共识”是确保两岸关系和平发展的关键。两岸一家亲的理念</t>
+  </si>
+  <si>
+    <t>推动社会主义文化繁荣兴盛</t>
+  </si>
+  <si>
+    <t>一、牢牢掌握意识形态工作领导权</t>
+  </si>
+  <si>
+    <t>意识形态决定文化前进方向</t>
+  </si>
+  <si>
+    <t>1.要旗帜鲜明坚持马克思主义指导地位</t>
+  </si>
+  <si>
+    <t>2.加快构建中国特色哲学社会科学</t>
+  </si>
+  <si>
+    <t>3.坚持正确的舆论导向</t>
+  </si>
+  <si>
+    <t>三个贴近：贴近实际，生活，群众</t>
+  </si>
+  <si>
+    <t>4.要建设好网络空间</t>
+  </si>
+  <si>
+    <t>5.落实好意识形态工作责任制</t>
+  </si>
+  <si>
+    <t>二、培育和践行社会主义核心价值观</t>
+  </si>
+  <si>
+    <t>国家层面</t>
+  </si>
+  <si>
+    <t>富强、民主、文明、和谐</t>
+  </si>
+  <si>
+    <t>(美丽）</t>
+  </si>
+  <si>
+    <t>社会层面</t>
+  </si>
+  <si>
+    <t>自由、平等、公正、法治</t>
+  </si>
+  <si>
+    <t>公民层面</t>
+  </si>
+  <si>
+    <t>爱国、敬业、诚信、友善</t>
+  </si>
+  <si>
+    <t>培育和践行社会主义核心价值观，必须发扬伟大民族精神 (创造精神、奋斗精神、团结精神、梦想精神--习近平13届全国人大一次会议）</t>
+  </si>
+  <si>
+    <t>三、坚定文化自信，建设社会主义文化强国</t>
+  </si>
+  <si>
+    <t>1.建设社会主义文化强国，必须培养高度的文化自信</t>
+  </si>
+  <si>
+    <t>2.建设社会主义文化强国，必须大力发展文化事业和文化产业</t>
+  </si>
+  <si>
+    <t>坚持以人民为中心的导向深化文化体制改革，改善文化管理体制，加快把社会效益放在首位、社会效益和经济效益相统一的体制机制</t>
+  </si>
+  <si>
+    <t>3.建设社会主义文化强国，必须提高国家文化软实力</t>
+  </si>
+  <si>
+    <t>坚持在发展中保障和改善民生</t>
+  </si>
+  <si>
+    <t>幼有所育，学有所教，劳有所得，老有所养，住有所居，弱有所扶，病有所医</t>
+  </si>
+  <si>
+    <t>一、提高保障和改善民生水平</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.有限发展教育事业，把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教育</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事业发在优先位置</t>
+    </r>
+  </si>
+  <si>
+    <t>1.主要内容：社会保险(五险)</t>
+  </si>
+  <si>
+    <t>2.提高就业质量和人民收入水平，就业是最大的民主</t>
+  </si>
+  <si>
+    <t>2.最高层次的保障：社会福利(住房公积金)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.加强社会保障体系建设，全面建成覆盖全民、城乡统筹、权责清晰、保障适度、可持续的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多层次社会保障体系</t>
+    </r>
+  </si>
+  <si>
+    <t>社会保障体系有四个层那次</t>
+  </si>
+  <si>
+    <t>3.最低层次的保障：社会救济/救助(低保)</t>
+  </si>
+  <si>
+    <t>4.坚决打赢脱贫攻坚战，确保在2020年我国现行标准下农村贫困人口脱贫，贫困线全部摘帽(核心)，解决区域性整体贫困</t>
+  </si>
+  <si>
+    <t>4.保障对象特殊：优抚、安置(军人)</t>
+  </si>
+  <si>
+    <t>5.实施健康中国战略</t>
+  </si>
+  <si>
+    <t>二、加强和创新社会治理</t>
+  </si>
+  <si>
+    <t>1.坚持完善党委领导、政府负责、社会协同 、公众参与、法治保障的社会治理体制。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提高社会治理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社会化、法制化、智能化、专业化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水平，推进社会治理精细化，打造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>共建共治共享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的社会治理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>格局</t>
+    </r>
+  </si>
+  <si>
+    <t>2.社区是党和政府联系、服务居民群众的“最后一公里”，社会治理的重心要向基层下移落到城乡社区</t>
+  </si>
+  <si>
+    <t>三、坚持总体国家安全观</t>
+  </si>
+  <si>
+    <t>总体国家安全观是指</t>
+  </si>
+  <si>
+    <t>坚持国家利益至上，</t>
+  </si>
+  <si>
+    <t>以人民安全为宗旨，</t>
+  </si>
+  <si>
+    <t>以政治安全为根本，</t>
+  </si>
+  <si>
+    <t>以经济安全为基础，</t>
+  </si>
+  <si>
+    <t>以军事、文化、社会安全为保障，</t>
+  </si>
+  <si>
+    <t>以促进国际安全为依托，</t>
+  </si>
+  <si>
+    <t>维护各领域国家安全，构建国家安全体系，走中国特色国家安全道路。</t>
+  </si>
+  <si>
+    <t>全国国家安全教育日：4月15日</t>
+  </si>
+  <si>
+    <t>建设美丽中国</t>
+  </si>
+  <si>
+    <t>1.环境既是民生，青山就是美丽，蓝天也是幸福，绿水青山就是金山银山</t>
+  </si>
+  <si>
+    <t>2.着力解决突出环境问题</t>
+  </si>
+  <si>
+    <t>a.持续实施大气污染防治行动，打赢蓝天保卫战</t>
+  </si>
+  <si>
+    <t>b.加快水污染防治，实施流域环境和近岸海域综合治理</t>
+  </si>
+  <si>
+    <t>c.强化土壤污染管控和修复，加强农业面源污染防治</t>
+  </si>
+  <si>
+    <t>d.加强固体废弃物和垃圾处置</t>
+  </si>
+  <si>
+    <t>3.加大生态系统保护力度</t>
+  </si>
+  <si>
+    <t>完成生态保护红线、永久基本农田(15.5亿亩)、城镇开发边界三条控制线划定工作</t>
+  </si>
+  <si>
+    <t>全面建成小康社会</t>
+  </si>
+  <si>
+    <t>战略目标</t>
+  </si>
+  <si>
+    <t>手段</t>
+  </si>
+  <si>
+    <t>提供动力</t>
+  </si>
+  <si>
+    <t>提供保障</t>
+  </si>
+  <si>
+    <t>提供根本保证</t>
+  </si>
+  <si>
+    <t>建成小康社会决胜期</t>
+  </si>
+  <si>
+    <t>19大到2020</t>
+  </si>
+  <si>
+    <t>建成小康社会历史交汇起</t>
+  </si>
+  <si>
+    <t>19大到20大</t>
+  </si>
+  <si>
+    <t>三七（三个攻坚战，七个战略)</t>
+  </si>
+  <si>
+    <r>
+      <t>打好防范化解重大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻坚战</t>
+    </r>
+  </si>
+  <si>
+    <t>重点防金融风险</t>
+  </si>
+  <si>
+    <r>
+      <t>打好精准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脱贫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻坚战</t>
+    </r>
+  </si>
+  <si>
+    <t>三位一体：专项扶贫、行业扶贫、社会扶贫？</t>
+  </si>
+  <si>
+    <r>
+      <t>打好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>污染</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防治攻坚战</t>
+    </r>
+  </si>
+  <si>
+    <t>确保经济社会持续健康发展</t>
+  </si>
+  <si>
+    <t>七大战略：1.科教兴国；2.人才强国；3.创新驱动发展；4.乡村振兴；5.区域协调；6.可持续发展;7.军民融合发展战略</t>
+  </si>
+  <si>
+    <t>一、全面深化改革的要求</t>
+  </si>
+  <si>
+    <t>1.坚持党对改革的集中统一领导</t>
+  </si>
+  <si>
+    <t>2.坚持改革沿着中特社方向前进</t>
+  </si>
+  <si>
+    <t>3.坚持改革往维护社会公平正义，增进人民福祉方向前进</t>
+  </si>
+  <si>
+    <t>深化改革的出发点和落脚地</t>
+  </si>
+  <si>
+    <t>出发点和落脚点一般都是人民</t>
+  </si>
+  <si>
+    <t>4.坚持社会主义市场经济改革方向</t>
+  </si>
+  <si>
+    <t>目标都是解放生产力</t>
+  </si>
+  <si>
+    <t>二、全年深化改革的总目标（二zhi，刀zhi制和水zhi治）</t>
+  </si>
+  <si>
+    <t>1.完善和发展中国特色社会主义制度(根本方向</t>
+  </si>
+  <si>
+    <t>2.推进国家治理体系和治理能力现代化(实现路径)</t>
+  </si>
+  <si>
+    <t>三、正确处理全面深化改革中的重大关系</t>
+  </si>
+  <si>
+    <t>1.处理好解放思想和实事求是的关系</t>
+  </si>
+  <si>
+    <t>2.处理好顶层设计和摸着石头过河的关系</t>
+  </si>
+  <si>
+    <t>3.处理好整体推进和重点突破的关系</t>
+  </si>
+  <si>
+    <t>4.处理好胆子要大，步子要稳的关系</t>
+  </si>
+  <si>
+    <t>5.处理好改革、发展、稳定的关系</t>
+  </si>
+  <si>
+    <t>改革是经济社会发展的强大动力</t>
+  </si>
+  <si>
+    <t>发展是解决一切经济社会问题的关键(目的)</t>
+  </si>
+  <si>
+    <t>稳定是改革发展的前提</t>
+  </si>
+  <si>
+    <t>改善人民生活是正确处理改革、发展、稳定关系的结合点</t>
+  </si>
+  <si>
+    <t>一、全面依法治国的形成发展</t>
+  </si>
+  <si>
+    <t>十八届四中全会《关于全面推进依法治国若干问题的决定》提出全面依法治国</t>
+  </si>
+  <si>
+    <t>十九大明确提出，全面依法治国是中国特色社会主义的本质要求和重要保障</t>
+  </si>
+  <si>
+    <t>二、中国特设社会主义法治道路</t>
+  </si>
+  <si>
+    <t>1.坚持公国共产党的领导。</t>
+  </si>
+  <si>
+    <t>2.坚持任免在全面依法治国中的主体地位</t>
+  </si>
+  <si>
+    <t>3.坚持法律面前人人平等</t>
+  </si>
+  <si>
+    <t>4.坚持依法治国和以德治国相结合</t>
+  </si>
+  <si>
+    <t>5.坚持从中国实际出发</t>
+  </si>
+  <si>
+    <t>三、深化依法治国实践的重点任务</t>
+  </si>
+  <si>
+    <t>科学立法</t>
+  </si>
+  <si>
+    <t>立法机关：全国人大和全国人大常委会</t>
+  </si>
+  <si>
+    <t>严格执法</t>
+  </si>
+  <si>
+    <t>公正司法</t>
+  </si>
+  <si>
+    <t>全年守法</t>
+  </si>
+  <si>
+    <t>这里守法包括：享受权利和履行义务</t>
+  </si>
+  <si>
+    <t>一、新时代党的建设总要求</t>
+  </si>
+  <si>
+    <t>四大考验：</t>
+  </si>
+  <si>
+    <t>执政考验、改革开放考验、市场经济考验、外部环境考验</t>
+  </si>
+  <si>
+    <t>四大危险：</t>
+  </si>
+  <si>
+    <t>精神懈怠危险、能力不足危险、脱离群众危险(最大危险)、消极腐败危险</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>坚持和加强党的全面领导</t>
+  </si>
+  <si>
+    <t>坚持党要管党、全面从严治党</t>
+  </si>
+  <si>
+    <t>统领</t>
+  </si>
+  <si>
+    <t>党的政治建设</t>
+  </si>
+  <si>
+    <t>加强党的长期执政能力建设、先进性和纯洁性建设</t>
+  </si>
+  <si>
+    <t>根基</t>
+  </si>
+  <si>
+    <t>坚持理想信念宗旨</t>
+  </si>
+  <si>
+    <t>调动全党积极性、主动性、创造性</t>
+  </si>
+  <si>
+    <t>总体布局</t>
+  </si>
+  <si>
+    <t>全面推进党的政治、思想、组织、作风、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争</t>
+  </si>
+  <si>
+    <t>5+1的总体布局</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>始终走在时代前列，人民衷心拥护，用语自我革命，经得起各种风浪考验 ，朝气蓬勃的马克思主义执政党</t>
+  </si>
+  <si>
+    <t>二、党的建设总体布局(5+1）</t>
+  </si>
+  <si>
+    <t>1、政治建设</t>
+  </si>
+  <si>
+    <t>统领、首位</t>
+  </si>
+  <si>
+    <t>党是十九大把首次把政治建设纳入党的总体布局。并强调“以政治建设为统领”，“把党的政治建设摆在首位”</t>
+  </si>
+  <si>
+    <t>旗帜鲜明讲政治是我党作为马克思主义政党的根本要求</t>
+  </si>
+  <si>
+    <t>政治建设的首要任务：保证全党服从中央、坚持党中央权威和集中统一领导</t>
+  </si>
+  <si>
+    <t>2、思想建设</t>
+  </si>
+  <si>
+    <t>思想建设是基础，首要任务谈理想；精神支柱和灵魂，共产主义和共同；</t>
+  </si>
+  <si>
+    <t>思想建设是党的基础性建设</t>
+  </si>
+  <si>
+    <t>思想建设的首要任务：坚定理想信念</t>
+  </si>
+  <si>
+    <t>党人的精神支柱和政治灵魂：共产主义远大理想和中国特色社会主义共同理想。</t>
+  </si>
+  <si>
+    <t>3、组织建设</t>
+  </si>
+  <si>
+    <t>组织原则：民主集中制。民主是基础，集中是指导。</t>
+  </si>
+  <si>
+    <t>党的战斗堡垒：党的基层组织建设</t>
+  </si>
+  <si>
+    <t>1.民主集中制建设</t>
+  </si>
+  <si>
+    <t>2.党的基层组织建设</t>
+  </si>
+  <si>
+    <t>3.干部队伍建设</t>
+  </si>
+  <si>
+    <t>好干部5个标准：信念坚定、为民服务、勤政务实、敢于担当、清正廉洁</t>
+  </si>
+  <si>
+    <t>4.党员队伍建设</t>
+  </si>
+  <si>
+    <t>4、作风建设</t>
+  </si>
+  <si>
+    <t>作风建设的核心是保持党同人民群众的血肉联系</t>
+  </si>
+  <si>
+    <t>我们党的最大政治优势是：密切联系群众</t>
+  </si>
+  <si>
+    <t>四风：享乐主义、形式主义、官僚主义、奢靡之风</t>
+  </si>
+  <si>
+    <t>5、制度建设</t>
+  </si>
+  <si>
+    <t>把权利关进制度的笼子里</t>
+  </si>
+  <si>
+    <t>加强制度建设是全面从严治党的长远之策、根本之策</t>
+  </si>
+  <si>
+    <t>形成内容科学、程序严密、配套完备、运行有效的党内法规制度体系</t>
+  </si>
+  <si>
+    <t>6、反腐斗争</t>
+  </si>
+  <si>
+    <t>腐败是我们党面的最大威胁</t>
+  </si>
+  <si>
+    <t>十三届全国人大一次会议通过宪法修正案，组建国、省、市、县(四级)检察委员会。实现对公职人员检察全覆盖</t>
+  </si>
+  <si>
+    <t>全面推进国防和军队现代化</t>
+  </si>
+  <si>
+    <t>回答了“新时代建设一支什么样的强大人民军队、怎样建设强大人民军队”的时代课题</t>
+  </si>
+  <si>
+    <t>怎样建设人民军队</t>
+  </si>
+  <si>
+    <t>1.党对军队绝对领导的必要性</t>
+  </si>
+  <si>
+    <t>党对军队的绝对领导是中特社的本质特征，是党和国家的重要政治优势</t>
+  </si>
+  <si>
+    <t>党的领导是人民军队战无不胜的根本保证</t>
+  </si>
+  <si>
+    <t>党对军队绝对领导是人民军队建军之本、强军之魂。</t>
+  </si>
+  <si>
+    <t>党指挥枪是保持人民军队本质和宗旨的根本保障</t>
+  </si>
+  <si>
+    <t>2.党对军队绝对领导的制度</t>
+  </si>
+  <si>
+    <t>军队最高领导权和指挥权属于党中央和中央军委</t>
+  </si>
+  <si>
+    <t>中央军委实行主席负责制</t>
+  </si>
+  <si>
+    <t>最高实现形式</t>
+  </si>
+  <si>
+    <t>党委制、政治委员制、政治机关制</t>
+  </si>
+  <si>
+    <t>重要组织支撑</t>
+  </si>
+  <si>
+    <t>实行党委统一的集体领导下的首长分工负责制</t>
+  </si>
+  <si>
+    <t>根本制度</t>
+  </si>
+  <si>
+    <t>实行支部建在连上</t>
+  </si>
+  <si>
+    <t>坚实基础</t>
+  </si>
+  <si>
+    <t>建设世界一流军队</t>
+  </si>
+  <si>
+    <t>1.全面推进国防和军队现代化的战略安排</t>
+  </si>
+  <si>
+    <t>a.到2020年，国防和军队建设要基本实现机械化，信息化建设取得重大进展，战略能力有大的提升</t>
+  </si>
+  <si>
+    <t>b.到2035年，基本实现国防和军队现代化</t>
+  </si>
+  <si>
+    <t>c.到本世界中叶，把人民军队全面建成世界一流军队</t>
+  </si>
+  <si>
+    <t>2.建设世界一流军队的要求</t>
+  </si>
+  <si>
+    <t>a.战斗力</t>
+  </si>
+  <si>
+    <t>b.坚持政治建军</t>
+  </si>
+  <si>
+    <t>立军之本</t>
+  </si>
+  <si>
+    <t>古田会议(政治建军，思想建党)</t>
+  </si>
+  <si>
+    <t>坚持强军</t>
+  </si>
+  <si>
+    <t>关键一招</t>
+  </si>
+  <si>
+    <t>科技兴军</t>
+  </si>
+  <si>
+    <t>核心战斗力</t>
+  </si>
+  <si>
+    <t>依法治军</t>
+  </si>
+  <si>
+    <t>坚持和平发展道路</t>
+  </si>
+  <si>
+    <t>外交政策</t>
+  </si>
+  <si>
+    <t>独立自主和平外交政策</t>
+  </si>
+  <si>
+    <t>外交政策的宗旨</t>
+  </si>
+  <si>
+    <t>维护世界和平、促进共同发展</t>
+  </si>
+  <si>
+    <t>旗帜</t>
+  </si>
+  <si>
+    <t>和平、发展、合作、共赢</t>
+  </si>
+  <si>
+    <t>新型国际关系</t>
+  </si>
+  <si>
+    <t>相互尊重、公平正义、合作共赢</t>
+  </si>
+  <si>
+    <t>外交工作布局</t>
+  </si>
+  <si>
+    <t>大国是关键、周边是首要、发展中国家是基础、多变是舞台</t>
+  </si>
+  <si>
+    <t>全球治理观</t>
+  </si>
+  <si>
+    <t>共商共建共享</t>
+  </si>
+  <si>
+    <t>推动构建人类命运共同体</t>
+  </si>
+  <si>
+    <t>构建人类命运共同体思想核心是：建设持久和平、普遍安全、共同繁荣、开放包容、清洁美丽的世界</t>
+  </si>
+  <si>
+    <r>
+      <t>党的十九大提出：以“一带一路”建设为重点，坚持引进来和走出去并重，遵循共商共建共享原则，加强创新能力开放合作，形成陆海内外联动，、东西双向互济的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开放格局</t>
+    </r>
+  </si>
+  <si>
+    <t>丝路精神：</t>
+  </si>
+  <si>
+    <t>和平合作、开放包容、互学互鉴、互利共赢</t>
+  </si>
+  <si>
+    <t>五通</t>
+  </si>
+  <si>
+    <t>政策沟通、设施联通、贸易畅通、资金融通、民心相通</t>
+  </si>
+  <si>
+    <t>五路</t>
+  </si>
+  <si>
+    <t>和平之路、繁荣之路、开放之路、创新之路、文明之路</t>
+  </si>
+  <si>
+    <t>坚持和加强党的领导</t>
+  </si>
+  <si>
+    <t>党的领导是中特社的最本质特征</t>
+  </si>
+  <si>
+    <t>党的领导是中特社制度的最大优势</t>
+  </si>
+  <si>
+    <t>新时代中国共产党的历史使命</t>
+  </si>
+  <si>
+    <t>新时代中国共产党的历史使命，就是统揽伟大斗争、伟大工程、伟大事业、伟大梦想，在全面建成小康社会的基础上全面建成社会主义现代化强国，实现中华民族伟大复兴的中国梦</t>
+  </si>
+  <si>
+    <t>伟大梦想</t>
+  </si>
+  <si>
+    <t>实现中华民族伟大复兴</t>
+  </si>
+  <si>
+    <t>伟大工程</t>
+  </si>
+  <si>
+    <t>党的建设(决定性的作用)</t>
+  </si>
+  <si>
+    <t>伟大事业</t>
+  </si>
+  <si>
+    <t>中国特色社会主义</t>
+  </si>
+  <si>
+    <t>伟大斗争</t>
+  </si>
+  <si>
+    <t>坚持党对一切工作的领导</t>
+  </si>
+  <si>
+    <t>1.党是最高政治领导力量，必须毫不动摇坚持党对一切工作的领导</t>
+  </si>
+  <si>
+    <t>2.坚持党纵览全局、协调各方的领导核心地位</t>
+  </si>
+  <si>
+    <t>3.增强政治意识、大局意识、核心意识、看起意识，自觉维护党中央权威和集中统一领导</t>
+  </si>
+  <si>
+    <t>全面增强党的执政本领</t>
+  </si>
+  <si>
+    <t>1.提高把方向、谋大局、定政策、促改革的能力</t>
+  </si>
+  <si>
+    <t>2.提高保持政治定力、驾驭政治局面、防范政治风险的能力</t>
+  </si>
+  <si>
+    <t>3.要坚持战略思维、创新思维、辩证思维、法治思维、底线思维，科学制定和坚决执行党的路线方针政策</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +3411,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1968,14 +3428,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1990,75 +3450,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2074,7 +3474,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2089,6 +3527,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2097,7 +3542,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2106,6 +3566,20 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2120,7 +3594,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2138,84 +3768,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2223,84 +3775,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,7 +3803,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2344,40 +3818,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2398,16 +3848,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2419,10 +3893,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2431,137 +3905,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,9 +4044,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2939,7 +4410,7 @@
   <sheetPr/>
   <dimension ref="A1:Q161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
@@ -2949,7 +4420,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2957,13 +4428,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2987,7 +4458,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -2996,10 +4467,10 @@
       <c r="L8">
         <v>1978</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="7"/>
       <c r="O8" t="s">
         <v>11</v>
       </c>
@@ -3008,17 +4479,17 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="L9">
         <v>1982</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="7"/>
       <c r="O9" t="s">
         <v>15</v>
       </c>
@@ -3027,17 +4498,17 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="L10">
         <v>1987</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="7"/>
       <c r="O10" t="s">
         <v>19</v>
       </c>
@@ -3046,17 +4517,17 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="L11">
         <v>1992</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="7"/>
       <c r="O11" t="s">
         <v>23</v>
       </c>
@@ -3065,14 +4536,14 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="8"/>
+      <c r="N12" s="7"/>
       <c r="O12" t="s">
         <v>27</v>
       </c>
@@ -3081,67 +4552,67 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="L13">
         <v>1997</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="8"/>
+      <c r="N13" s="7"/>
       <c r="O13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="L14">
         <v>1999</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
       <c r="O14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="L15">
         <v>2002</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="8"/>
+      <c r="N15" s="7"/>
       <c r="O15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="L16">
         <v>2004</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
       <c r="O16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B17" t="s">
@@ -3153,16 +4624,16 @@
       <c r="L17">
         <v>2007</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="7"/>
       <c r="O17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>44</v>
       </c>
@@ -3172,16 +4643,16 @@
       <c r="L18">
         <v>2017</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="7"/>
       <c r="O18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -3191,14 +4662,14 @@
       <c r="L19">
         <v>2018</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
       <c r="O19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>51</v>
       </c>
@@ -3211,16 +4682,16 @@
       <c r="L20" t="s">
         <v>54</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="8"/>
+      <c r="N20" s="7"/>
       <c r="O20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B21" t="s">
@@ -3232,16 +4703,16 @@
       <c r="J21" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="8"/>
+      <c r="N21" s="7"/>
       <c r="O21">
         <v>1999</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -3251,16 +4722,16 @@
       <c r="J22" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="8"/>
+      <c r="N22" s="7"/>
       <c r="O22">
         <v>2004</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>66</v>
       </c>
@@ -3270,16 +4741,16 @@
       <c r="J23" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="8"/>
+      <c r="N23" s="7"/>
       <c r="O23">
         <v>2018</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>70</v>
       </c>
@@ -3289,16 +4760,16 @@
       <c r="J24" t="s">
         <v>72</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="7"/>
       <c r="O24">
         <v>2018</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D28" t="s">
@@ -3309,7 +4780,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D29" t="s">
@@ -3317,7 +4788,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D30" t="s">
@@ -3328,7 +4799,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D31" t="s">
@@ -3344,7 +4815,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D35" t="s">
@@ -3371,7 +4842,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D40" t="s">
@@ -3379,7 +4850,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D42" t="s">
@@ -3407,7 +4878,7 @@
       </c>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3640,7 +5111,7 @@
       </c>
     </row>
     <row r="124" spans="4:12">
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E124" t="s">
@@ -3651,7 +5122,7 @@
       </c>
     </row>
     <row r="125" spans="4:12">
-      <c r="D125" s="4"/>
+      <c r="D125" s="3"/>
       <c r="E125" t="s">
         <v>157</v>
       </c>
@@ -3663,7 +5134,7 @@
       <c r="A126" t="s">
         <v>159</v>
       </c>
-      <c r="D126" s="4"/>
+      <c r="D126" s="3"/>
       <c r="E126" t="s">
         <v>160</v>
       </c>
@@ -3672,7 +5143,7 @@
       </c>
     </row>
     <row r="127" spans="4:12">
-      <c r="D127" s="4"/>
+      <c r="D127" s="3"/>
       <c r="E127" t="s">
         <v>162</v>
       </c>
@@ -3681,7 +5152,7 @@
       </c>
     </row>
     <row r="128" spans="4:7">
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E128" t="s">
@@ -3692,7 +5163,7 @@
       </c>
     </row>
     <row r="129" spans="4:7">
-      <c r="D129" s="4"/>
+      <c r="D129" s="3"/>
       <c r="E129" t="s">
         <v>167</v>
       </c>
@@ -3701,7 +5172,7 @@
       </c>
     </row>
     <row r="130" spans="4:7">
-      <c r="D130" s="4"/>
+      <c r="D130" s="3"/>
       <c r="E130" t="s">
         <v>169</v>
       </c>
@@ -3710,7 +5181,7 @@
       </c>
     </row>
     <row r="131" spans="4:7">
-      <c r="D131" s="4"/>
+      <c r="D131" s="3"/>
       <c r="E131" t="s">
         <v>171</v>
       </c>
@@ -3894,7 +5365,7 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="6:9">
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>196</v>
       </c>
       <c r="G1">
@@ -3908,7 +5379,7 @@
       </c>
     </row>
     <row r="2" spans="6:9">
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
       <c r="G2">
         <v>1982</v>
       </c>
@@ -3920,7 +5391,7 @@
       </c>
     </row>
     <row r="3" spans="6:12">
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3">
         <v>1987</v>
       </c>
@@ -3935,7 +5406,7 @@
       </c>
     </row>
     <row r="4" spans="6:9">
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="G4">
         <v>1992</v>
       </c>
@@ -3947,7 +5418,7 @@
       </c>
     </row>
     <row r="5" spans="6:9">
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="G5">
         <v>1997</v>
       </c>
@@ -3959,7 +5430,7 @@
       </c>
     </row>
     <row r="6" spans="6:9">
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
       <c r="G6">
         <v>1999</v>
       </c>
@@ -3971,7 +5442,7 @@
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>208</v>
       </c>
       <c r="G8" t="s">
@@ -3979,19 +5450,19 @@
       </c>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
       <c r="G10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>212</v>
       </c>
       <c r="F14" t="s">
@@ -3999,16 +5470,16 @@
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="5:6">
-      <c r="E16" s="4"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="17" spans="5:8">
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
       <c r="G17" t="s">
         <v>215</v>
       </c>
@@ -4017,7 +5488,7 @@
       </c>
     </row>
     <row r="18" spans="5:8">
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
       <c r="H18" t="s">
         <v>217</v>
       </c>
@@ -4530,7 +6001,7 @@
       </c>
     </row>
     <row r="35" spans="7:14">
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>332</v>
       </c>
       <c r="H35" t="s">
@@ -4544,7 +6015,7 @@
       </c>
     </row>
     <row r="36" spans="7:14">
-      <c r="G36" s="4"/>
+      <c r="G36" s="3"/>
       <c r="H36" t="s">
         <v>336</v>
       </c>
@@ -4556,7 +6027,7 @@
       </c>
     </row>
     <row r="37" spans="7:14">
-      <c r="G37" s="4"/>
+      <c r="G37" s="3"/>
       <c r="H37" t="s">
         <v>339</v>
       </c>
@@ -4565,7 +6036,7 @@
       </c>
     </row>
     <row r="38" spans="7:14">
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>341</v>
       </c>
       <c r="N38" t="s">
@@ -4573,7 +6044,7 @@
       </c>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="5"/>
+      <c r="G39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4889,10 +6360,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:U69"/>
+  <dimension ref="A2:U341"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="D341" sqref="D341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5269,12 +6740,16 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="2:3">
+      <c r="B49" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="C49" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="2:5">
+      <c r="B50" s="3"/>
       <c r="D50" t="s">
         <v>485</v>
       </c>
@@ -5282,7 +6757,8 @@
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="2:5">
+      <c r="B51" s="3"/>
       <c r="D51" t="s">
         <v>487</v>
       </c>
@@ -5290,7 +6766,8 @@
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="2:5">
+      <c r="B52" s="3"/>
       <c r="D52" t="s">
         <v>489</v>
       </c>
@@ -5298,99 +6775,1546 @@
         <v>490</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
+    <row r="53" spans="2:5">
+      <c r="B53" s="3"/>
       <c r="E53" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="54" spans="5:5">
+    <row r="54" spans="2:5">
+      <c r="B54" s="3"/>
       <c r="E54" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="55" spans="2:2">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="3"/>
       <c r="C56" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="2:4">
+      <c r="B57" s="3"/>
       <c r="D57" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
-      <c r="D58" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="3"/>
+      <c r="D58" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
-      <c r="D59" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="3"/>
+      <c r="D59" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="60" spans="2:2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>497</v>
+      </c>
+      <c r="B62" t="s">
+        <v>452</v>
+      </c>
       <c r="C62" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="63" spans="5:18">
+      <c r="E63" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R63" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7">
-      <c r="F65" t="s">
-        <v>500</v>
-      </c>
-      <c r="G65" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="6:12">
+    <row r="66" spans="4:6">
+      <c r="D66" t="s">
+        <v>502</v>
+      </c>
+      <c r="E66" t="s">
+        <v>503</v>
+      </c>
       <c r="F66" t="s">
-        <v>502</v>
-      </c>
-      <c r="G66" t="s">
-        <v>503</v>
-      </c>
-      <c r="J66" t="s">
         <v>504</v>
       </c>
-      <c r="L66" t="s">
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="67" spans="6:7">
       <c r="F67" t="s">
         <v>506</v>
       </c>
-      <c r="G67" t="s">
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="68" spans="6:7">
       <c r="F68" t="s">
         <v>508</v>
       </c>
-      <c r="G68" t="s">
+    </row>
+    <row r="69" spans="5:6">
+      <c r="E69" t="s">
+        <v>411</v>
+      </c>
+      <c r="F69" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="6:7">
-      <c r="F69" t="s">
+    <row r="71" spans="5:5">
+      <c r="E71" t="s">
         <v>510</v>
       </c>
-      <c r="G69" t="s">
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" t="s">
         <v>511</v>
       </c>
     </row>
+    <row r="73" spans="4:5">
+      <c r="D73" t="s">
+        <v>512</v>
+      </c>
+      <c r="E73" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" t="s">
+        <v>517</v>
+      </c>
+      <c r="E78" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79" spans="5:15">
+      <c r="E79" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="O79" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="5:15">
+      <c r="E80" t="s">
+        <v>521</v>
+      </c>
+      <c r="O80" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="5:9">
+      <c r="E81" t="s">
+        <v>523</v>
+      </c>
+      <c r="I81" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83" spans="5:9">
+      <c r="E83" t="s">
+        <v>526</v>
+      </c>
+      <c r="I83" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87" t="s">
+        <v>530</v>
+      </c>
+      <c r="G87" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12">
+      <c r="F88" t="s">
+        <v>532</v>
+      </c>
+      <c r="G88" t="s">
+        <v>533</v>
+      </c>
+      <c r="J88" t="s">
+        <v>534</v>
+      </c>
+      <c r="L88" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" t="s">
+        <v>536</v>
+      </c>
+      <c r="G89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" t="s">
+        <v>538</v>
+      </c>
+      <c r="G90" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91" t="s">
+        <v>540</v>
+      </c>
+      <c r="G91" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="102" spans="12:12">
+      <c r="L102" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>409</v>
+      </c>
+      <c r="C103" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7">
+      <c r="E108" t="s">
+        <v>554</v>
+      </c>
+      <c r="G108" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7">
+      <c r="E109" t="s">
+        <v>556</v>
+      </c>
+      <c r="G109" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7">
+      <c r="E110" t="s">
+        <v>558</v>
+      </c>
+      <c r="G110" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10">
+      <c r="E111" t="s">
+        <v>560</v>
+      </c>
+      <c r="G111" t="s">
+        <v>561</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10">
+      <c r="E112" t="s">
+        <v>563</v>
+      </c>
+      <c r="G112" t="s">
+        <v>564</v>
+      </c>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="5:10">
+      <c r="E113" t="s">
+        <v>565</v>
+      </c>
+      <c r="G113" t="s">
+        <v>566</v>
+      </c>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
+        <v>414</v>
+      </c>
+      <c r="C122" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="123" spans="4:9">
+      <c r="D123" t="s">
+        <v>575</v>
+      </c>
+      <c r="I123" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="126" spans="5:9">
+      <c r="E126" t="s">
+        <v>579</v>
+      </c>
+      <c r="I126" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="130" spans="5:11">
+      <c r="E130" t="s">
+        <v>584</v>
+      </c>
+      <c r="G130" t="s">
+        <v>585</v>
+      </c>
+      <c r="K130" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7">
+      <c r="E131" t="s">
+        <v>587</v>
+      </c>
+      <c r="G131" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7">
+      <c r="E132" t="s">
+        <v>589</v>
+      </c>
+      <c r="G132" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="136" spans="5:12">
+      <c r="E136" t="s">
+        <v>594</v>
+      </c>
+      <c r="L136" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12">
+      <c r="B140" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" t="s">
+        <v>597</v>
+      </c>
+      <c r="L140" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="142" spans="5:20">
+      <c r="E142" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="T142" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="143" spans="5:20">
+      <c r="E143" t="s">
+        <v>602</v>
+      </c>
+      <c r="T143" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="144" spans="5:20">
+      <c r="E144" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>605</v>
+      </c>
+      <c r="T144" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="145" spans="5:20">
+      <c r="E145" t="s">
+        <v>607</v>
+      </c>
+      <c r="T145" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6">
+      <c r="F155" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6">
+      <c r="F156" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6">
+      <c r="F157" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6">
+      <c r="F158" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>421</v>
+      </c>
+      <c r="B179" t="s">
+        <v>633</v>
+      </c>
+      <c r="E179" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" t="s">
+        <v>410</v>
+      </c>
+      <c r="D180" t="s">
+        <v>635</v>
+      </c>
+      <c r="E180" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" t="s">
+        <v>415</v>
+      </c>
+      <c r="D181" t="s">
+        <v>635</v>
+      </c>
+      <c r="E181" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" t="s">
+        <v>422</v>
+      </c>
+      <c r="D182" t="s">
+        <v>635</v>
+      </c>
+      <c r="E182" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6">
+      <c r="C186" t="s">
+        <v>639</v>
+      </c>
+      <c r="F186" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6">
+      <c r="C187" t="s">
+        <v>641</v>
+      </c>
+      <c r="F187" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="190" spans="3:6">
+      <c r="C190" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F190" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6">
+      <c r="C191" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F191" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="193" spans="3:6">
+      <c r="C193" t="s">
+        <v>649</v>
+      </c>
+      <c r="F193" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="199" spans="4:14">
+      <c r="D199" t="s">
+        <v>654</v>
+      </c>
+      <c r="J199" t="s">
+        <v>655</v>
+      </c>
+      <c r="N199" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="200" spans="4:14">
+      <c r="D200" t="s">
+        <v>657</v>
+      </c>
+      <c r="N200" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4">
+      <c r="D223" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="227" spans="4:6">
+      <c r="D227" t="s">
+        <v>682</v>
+      </c>
+      <c r="F227" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6">
+      <c r="D230" t="s">
+        <v>686</v>
+      </c>
+      <c r="F230" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="233" spans="4:6">
+      <c r="D233" t="s">
+        <v>689</v>
+      </c>
+      <c r="F233" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="234" spans="4:6">
+      <c r="D234" t="s">
+        <v>691</v>
+      </c>
+      <c r="F234" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5">
+      <c r="D237" t="s">
+        <v>693</v>
+      </c>
+      <c r="E237" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="238" spans="4:5">
+      <c r="D238" t="s">
+        <v>40</v>
+      </c>
+      <c r="E238" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="239" spans="4:5">
+      <c r="D239" t="s">
+        <v>696</v>
+      </c>
+      <c r="E239" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="240" spans="4:5">
+      <c r="D240" t="s">
+        <v>503</v>
+      </c>
+      <c r="E240" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5">
+      <c r="D241" t="s">
+        <v>699</v>
+      </c>
+      <c r="E241" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5">
+      <c r="D242" t="s">
+        <v>505</v>
+      </c>
+      <c r="E242" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="243" spans="4:16">
+      <c r="D243" t="s">
+        <v>702</v>
+      </c>
+      <c r="E243" t="s">
+        <v>703</v>
+      </c>
+      <c r="P243" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="244" spans="4:5">
+      <c r="D244" t="s">
+        <v>705</v>
+      </c>
+      <c r="E244" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="246" spans="4:8">
+      <c r="D246" t="s">
+        <v>708</v>
+      </c>
+      <c r="H246" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5">
+      <c r="E247" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5">
+      <c r="E248" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5">
+      <c r="E249" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="250" spans="4:8">
+      <c r="D250" t="s">
+        <v>713</v>
+      </c>
+      <c r="H250" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5">
+      <c r="E251" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5">
+      <c r="E252" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5">
+      <c r="E253" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5">
+      <c r="E255" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5">
+      <c r="E256" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5">
+      <c r="E257" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5">
+      <c r="E258" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="259" spans="5:8">
+      <c r="E259" t="s">
+        <v>723</v>
+      </c>
+      <c r="H259" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5">
+      <c r="E260" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4">
+      <c r="D262" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5">
+      <c r="E263" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5">
+      <c r="E264" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5">
+      <c r="E265" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="266" spans="4:8">
+      <c r="D266" t="s">
+        <v>730</v>
+      </c>
+      <c r="H266" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5">
+      <c r="E267" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5">
+      <c r="E268" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4">
+      <c r="D269" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5">
+      <c r="E270" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5">
+      <c r="E271" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="B275" t="s">
+        <v>737</v>
+      </c>
+      <c r="G275" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5">
+      <c r="E278" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5">
+      <c r="E279" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5">
+      <c r="E280" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5">
+      <c r="E281" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4">
+      <c r="D282" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5">
+      <c r="E283" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="284" spans="5:11">
+      <c r="E284" t="s">
+        <v>747</v>
+      </c>
+      <c r="K284" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="285" spans="5:11">
+      <c r="E285" t="s">
+        <v>749</v>
+      </c>
+      <c r="K285" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="286" spans="5:11">
+      <c r="E286" t="s">
+        <v>751</v>
+      </c>
+      <c r="K286" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="287" spans="5:11">
+      <c r="E287" t="s">
+        <v>753</v>
+      </c>
+      <c r="K287" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4">
+      <c r="D291" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5">
+      <c r="E292" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5">
+      <c r="E293" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5">
+      <c r="E294" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="295" spans="4:4">
+      <c r="D295" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5">
+      <c r="E296" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="297" spans="5:9">
+      <c r="E297" t="s">
+        <v>762</v>
+      </c>
+      <c r="G297" t="s">
+        <v>763</v>
+      </c>
+      <c r="I297" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="298" spans="5:7">
+      <c r="E298" t="s">
+        <v>765</v>
+      </c>
+      <c r="G298" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="299" spans="5:7">
+      <c r="E299" t="s">
+        <v>767</v>
+      </c>
+      <c r="G299" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="300" spans="5:7">
+      <c r="E300" t="s">
+        <v>769</v>
+      </c>
+      <c r="G300" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="305" spans="4:6">
+      <c r="D305" t="s">
+        <v>771</v>
+      </c>
+      <c r="F305" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="306" spans="4:6">
+      <c r="D306" t="s">
+        <v>773</v>
+      </c>
+      <c r="F306" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="307" spans="4:6">
+      <c r="D307" t="s">
+        <v>775</v>
+      </c>
+      <c r="F307" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="308" spans="4:6">
+      <c r="D308" t="s">
+        <v>777</v>
+      </c>
+      <c r="F308" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="309" spans="4:6">
+      <c r="D309" t="s">
+        <v>779</v>
+      </c>
+      <c r="F309" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="310" spans="4:6">
+      <c r="D310" t="s">
+        <v>781</v>
+      </c>
+      <c r="F310" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="313" spans="4:4">
+      <c r="D313" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="314" spans="4:4">
+      <c r="D314" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="315" spans="4:5">
+      <c r="D315" t="s">
+        <v>786</v>
+      </c>
+      <c r="E315" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="316" spans="4:5">
+      <c r="D316" t="s">
+        <v>788</v>
+      </c>
+      <c r="E316" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="317" spans="4:5">
+      <c r="D317" t="s">
+        <v>790</v>
+      </c>
+      <c r="E317" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4">
+      <c r="D322" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4">
+      <c r="D323" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4">
+      <c r="D327" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="329" spans="5:7">
+      <c r="E329" t="s">
+        <v>797</v>
+      </c>
+      <c r="F329" t="s">
+        <v>705</v>
+      </c>
+      <c r="G329" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="330" spans="5:7">
+      <c r="E330" t="s">
+        <v>799</v>
+      </c>
+      <c r="F330" t="s">
+        <v>416</v>
+      </c>
+      <c r="G330" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="331" spans="5:7">
+      <c r="E331" t="s">
+        <v>801</v>
+      </c>
+      <c r="F331" t="s">
+        <v>448</v>
+      </c>
+      <c r="G331" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="332" spans="5:6">
+      <c r="E332" t="s">
+        <v>803</v>
+      </c>
+      <c r="F332" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4">
+      <c r="D334" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4">
+      <c r="D335" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4">
+      <c r="D336" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4">
+      <c r="D339" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4">
+      <c r="D340" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4">
+      <c r="D341" t="s">
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="B49:B60"/>
+    <mergeCell ref="J111:J113"/>
     <mergeCell ref="P28:P31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
